--- a/Piezas.xlsx
+++ b/Piezas.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox02\Dropbox\Projects\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA79122-426D-4B3F-B98A-B39928E20347}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D63246D-BAD8-4132-95AD-FA52116B5571}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="15345" windowHeight="4590" xr2:uid="{6B373377-2AAB-4360-AFD7-5932671041AB}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="15345" windowHeight="4590" xr2:uid="{6B373377-2AAB-4360-AFD7-5932671041AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Dama" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -449,7 +450,7 @@
   <dimension ref="A1:AT21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,11 +542,11 @@
         <v>10</v>
       </c>
       <c r="AC1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AD1">
         <f>QUOTIENT(AC1,8)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE1" t="s">
         <v>8</v>
@@ -637,7 +638,7 @@
       </c>
       <c r="AD2">
         <f>AC1-AD1*8</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="s">
         <v>9</v>
@@ -764,59 +765,59 @@
       </c>
       <c r="AG3">
         <f>9*AD1+9*AG2</f>
-        <v>-63</v>
+        <v>-27</v>
       </c>
       <c r="AH3">
-        <f>9*AD1+9*AG2</f>
-        <v>-63</v>
+        <f>9*AD1+9*AH2</f>
+        <v>-18</v>
       </c>
       <c r="AI3">
-        <f>9*AD1+9*AG2</f>
-        <v>-63</v>
+        <f>9*AD1+9*AI2</f>
+        <v>-9</v>
       </c>
       <c r="AJ3">
-        <f>9*AD1+9*AG2</f>
-        <v>-63</v>
+        <f>9*AD1+9*AJ2</f>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <f>9*AD1+9*AG2</f>
-        <v>-63</v>
+        <f>9*AD1+9*AK2</f>
+        <v>9</v>
       </c>
       <c r="AL3">
-        <f>9*AD1+9*AG2</f>
-        <v>-63</v>
+        <f>9*AD1+9*AL2</f>
+        <v>18</v>
       </c>
       <c r="AM3">
-        <f>9*AD1+9*AG2</f>
-        <v>-63</v>
+        <f>9*AD1+9*AM2</f>
+        <v>27</v>
       </c>
       <c r="AN3">
-        <f>9*AD1+9*AG2</f>
-        <v>-63</v>
+        <f>9*AD1+9*AN2</f>
+        <v>45</v>
       </c>
       <c r="AO3">
-        <f>9*AD1+9*AG2</f>
-        <v>-63</v>
+        <f>9*AD1+9*AO2</f>
+        <v>54</v>
       </c>
       <c r="AP3">
-        <f>9*AD1+9*AG2</f>
-        <v>-63</v>
+        <f>9*AD1+9*AP2</f>
+        <v>63</v>
       </c>
       <c r="AQ3">
-        <f>9*AD1+9*AG2</f>
-        <v>-63</v>
+        <f>9*AD1+9*AQ2</f>
+        <v>72</v>
       </c>
       <c r="AR3">
-        <f>9*AD1+9*AG2</f>
-        <v>-63</v>
+        <f>9*AD1+9*AR2</f>
+        <v>81</v>
       </c>
       <c r="AS3">
-        <f>9*AD1+9*AG2</f>
-        <v>-63</v>
+        <f>9*AD1+9*AS2</f>
+        <v>90</v>
       </c>
       <c r="AT3">
-        <f>9*AD1+9*AG2</f>
-        <v>-63</v>
+        <f>9*AD1+9*AT2</f>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1312,6 +1313,18 @@
       </c>
       <c r="AD8">
         <v>45</v>
+      </c>
+      <c r="AH8">
+        <f>8*(4+-1)+0+-1</f>
+        <v>23</v>
+      </c>
+      <c r="AI8">
+        <f>8*(4+1)+0+1</f>
+        <v>41</v>
+      </c>
+      <c r="AJ8">
+        <f>8*(4+2)+0+2</f>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
